--- a/Sitec CR.xlsx
+++ b/Sitec CR.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CR - Client " sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$L$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4.0.7'!$A$3:$G$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CR - Client '!$A$3:$H$23</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="166">
   <si>
     <t>SITEC - CHANGE REQUEST POINTS</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Corrective Action</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>4.0.8</t>
   </si>
   <si>
@@ -422,6 +425,12 @@
     <t>old and new screenshot need</t>
   </si>
   <si>
+    <t>Old and New screenshot added</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0022</t>
   </si>
   <si>
@@ -452,9 +461,6 @@
     <t>There should be a provision of 'Sample log report' button in 'Result Entry by Sample' Screen to the user level as Analyst.</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0003</t>
   </si>
   <si>
@@ -476,7 +482,7 @@
     <t>Invoice</t>
   </si>
   <si>
-    <t>There should be a provision to select the 'Currency' in 'Edit Invoice Entry' Window</t>
+    <t>There should be a provision to select the 'Currency' in 'Edit Invoice Entry' Window, A new screen for Currency to be added with add, edit, delete and Export options in Master</t>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0005</t>
@@ -576,6 +582,9 @@
     <t>TBC in 4.0.7</t>
   </si>
   <si>
+    <t>Checked in 4.0.7, It working properly</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0026</t>
   </si>
   <si>
@@ -697,21 +706,6 @@
     <t>Need to filter audit trail using Module Name, Form Name and User Name.</t>
   </si>
   <si>
-    <t>LIMS/4.0.9/CR/0011</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>A new screen for Currency to be added with add, edit, delete and Export options.</t>
-  </si>
-  <si>
-    <t>LIMS/4.0.9/CR/0004--&gt; Need to link with PPT</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>4.0.7</t>
   </si>
   <si>
@@ -1040,6 +1034,12 @@
   </si>
   <si>
     <t>Invoice Approval, new approval level to be added in the Invoice approval Flow i.e "Accounts" as Verifier.</t>
+  </si>
+  <si>
+    <t>LIMS/4.0.9/CR/0011</t>
+  </si>
+  <si>
+    <t>A new screen for Currency to be added with add, edit, delete and Export options.</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,13 +1106,6 @@
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1658,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1676,134 +1669,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1927,9 +1920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1939,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1954,13 +1944,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1975,7 +1965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2303,12 +2293,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
@@ -2323,7 +2313,7 @@
     <col min="8" max="8" width="22.8454545454545" style="32" customWidth="1"/>
     <col min="9" max="9" width="10.1272727272727" style="9" customWidth="1"/>
     <col min="10" max="10" width="42.2454545454545" customWidth="1"/>
-    <col min="11" max="11" width="29.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="34.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.95" customHeight="1" spans="1:11">
@@ -2367,7 +2357,7 @@
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:11">
+    <row r="4" ht="33" customHeight="1" spans="1:12">
       <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
@@ -2395,11 +2385,14 @@
       <c r="I4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="21.95" customHeight="1" spans="1:10">
@@ -2407,135 +2400,135 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="51"/>
+      <c r="I5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:10">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="39"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:10">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="39"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" ht="21.95" customHeight="1" spans="1:10">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" ht="21.95" customHeight="1" spans="1:10">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="39"/>
-      <c r="I9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>27</v>
+      <c r="I9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:10">
@@ -2543,113 +2536,119 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="54"/>
+      <c r="I10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:10">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="54"/>
+      <c r="I11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:10">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="55"/>
-    </row>
-    <row r="13" ht="32.25" customHeight="1" spans="1:10">
+      <c r="I12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1" spans="1:12">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>39</v>
+      <c r="I13" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="36.75" customHeight="1" spans="1:10">
@@ -2657,178 +2656,190 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="29" spans="1:10">
+      <c r="I14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="29" spans="1:12">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="38.1" customHeight="1" spans="1:10">
+      <c r="I15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="38.1" customHeight="1" spans="1:12">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H16" s="39"/>
-      <c r="I16" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="29" spans="1:10">
+      <c r="I16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="29" spans="1:12">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="33.95" customHeight="1" spans="1:10">
+        <v>57</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:12">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="27.95" customHeight="1" spans="1:10">
+      <c r="I18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:10">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="33.95" customHeight="1" spans="1:10">
@@ -2836,56 +2847,56 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:10">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>69</v>
+      <c r="I21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:10">
@@ -2893,88 +2904,88 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="55"/>
+      <c r="I22" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" ht="51" customHeight="1" spans="1:11">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="51"/>
+      <c r="I23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:10">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>77</v>
+      <c r="I24" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:10">
@@ -2982,29 +2993,29 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:10">
@@ -3012,29 +3023,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>69</v>
+      <c r="I26" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" ht="26.1" customHeight="1" spans="1:10">
@@ -3042,29 +3053,29 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>77</v>
+      <c r="I27" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:10">
@@ -3072,59 +3083,65 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" ht="66" customHeight="1" spans="1:10">
+      <c r="I28" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" ht="66" customHeight="1" spans="1:12">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>90</v>
+      <c r="I29" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="39.75" customHeight="1" spans="1:10">
@@ -3132,29 +3149,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>94</v>
+      <c r="I30" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="36.75" customHeight="1" spans="1:10">
@@ -3162,29 +3179,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:10">
@@ -3192,62 +3209,65 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" ht="30.75" customHeight="1" spans="1:11">
+        <v>105</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" ht="30.75" customHeight="1" spans="1:12">
       <c r="A33" s="6">
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="58" t="s">
-        <v>106</v>
+      <c r="I33" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1" spans="1:10">
@@ -3255,57 +3275,57 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="51"/>
+        <v>112</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" ht="39" customHeight="1" spans="1:10">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="51" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:10">
@@ -3313,29 +3333,29 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>115</v>
+        <v>69</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="51" t="s">
-        <v>116</v>
+      <c r="I36" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:10">
@@ -3343,88 +3363,68 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="51"/>
+      <c r="I37" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:10">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" ht="24.95" customHeight="1" spans="1:10">
-      <c r="A39" s="6">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" ht="24.95" customHeight="1" spans="1:9">
+      <c r="H38" s="43"/>
+      <c r="I38" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="50"/>
+    </row>
+    <row r="39" ht="24.95" customHeight="1" spans="1:9">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" s="32"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3434,105 +3434,106 @@
       <c r="G40" s="32"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41" s="32"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" ht="24.95" customHeight="1" spans="1:10">
+    <row r="41" ht="24.95" customHeight="1" spans="1:10">
+      <c r="A41" s="26"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" ht="23.1" customHeight="1" spans="1:10">
       <c r="A42" s="26"/>
       <c r="B42" s="30"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="29"/>
-      <c r="J42" s="59"/>
-    </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:10">
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="26"/>
       <c r="B43" s="30"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
+      <c r="H43" s="46"/>
       <c r="I43" s="29"/>
-      <c r="J43" s="59"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" ht="62.1" customHeight="1" spans="1:10">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
-      <c r="H44" s="47"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="59"/>
-    </row>
-    <row r="45" ht="62.1" customHeight="1" spans="1:10">
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" ht="32.1" customHeight="1" spans="1:10">
       <c r="A45" s="26"/>
       <c r="B45" s="30"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="H45" s="47"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="59"/>
-    </row>
-    <row r="46" ht="32.1" customHeight="1" spans="1:10">
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:10">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
-      <c r="H46" s="47"/>
+      <c r="H46" s="46"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="59"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:10">
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" ht="27.95" customHeight="1" spans="1:10">
       <c r="A47" s="26"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="H47" s="47"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="59"/>
-    </row>
-    <row r="48" ht="27.95" customHeight="1" spans="1:10">
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" ht="27" customHeight="1" spans="1:10">
       <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="H48" s="48"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="59"/>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:10">
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
-      <c r="H49" s="47"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="59"/>
+      <c r="J49" s="58"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="26"/>
@@ -3541,9 +3542,9 @@
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
-      <c r="H50" s="47"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="59"/>
+      <c r="J50" s="58"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="26"/>
@@ -3552,9 +3553,9 @@
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
-      <c r="H51" s="47"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="59"/>
+      <c r="J51" s="58"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="26"/>
@@ -3563,9 +3564,9 @@
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="H52" s="47"/>
+      <c r="H52" s="46"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="59"/>
+      <c r="J52" s="58"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="26"/>
@@ -3574,9 +3575,9 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="H53" s="47"/>
+      <c r="H53" s="46"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="59"/>
+      <c r="J53" s="58"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="26"/>
@@ -3585,32 +3586,32 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
-      <c r="H54" s="47"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="58"/>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:10">
       <c r="A55" s="26"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="47"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="59"/>
-    </row>
-    <row r="56" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:10">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="48"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
+      <c r="J56" s="58"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="29"/>
@@ -3619,9 +3620,9 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
-      <c r="H57" s="47"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="59"/>
+      <c r="J57" s="58"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="29"/>
@@ -3630,23 +3631,12 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
-      <c r="H58" s="47"/>
+      <c r="H58" s="46"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="59"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="59"/>
+      <c r="J58" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J41">
+  <autoFilter ref="A3:L38">
     <extLst/>
   </autoFilter>
   <mergeCells count="5">
@@ -3678,13 +3668,12 @@
     <hyperlink ref="I36" r:id="rId19" display="link"/>
     <hyperlink ref="I37" r:id="rId20" display="link"/>
     <hyperlink ref="I38" r:id="rId21" display="link"/>
-    <hyperlink ref="I39" r:id="rId22" display="link"/>
-    <hyperlink ref="I33" r:id="rId23" display="link"/>
-    <hyperlink ref="I23" r:id="rId24" display="link"/>
-    <hyperlink ref="I29" r:id="rId25" display="link"/>
-    <hyperlink ref="I30" r:id="rId26" display="link"/>
-    <hyperlink ref="I27" r:id="rId27" display="link"/>
-    <hyperlink ref="I22" r:id="rId28" display="link"/>
+    <hyperlink ref="I33" r:id="rId22" display="link"/>
+    <hyperlink ref="I23" r:id="rId23" display="link"/>
+    <hyperlink ref="I29" r:id="rId24" display="link"/>
+    <hyperlink ref="I30" r:id="rId25" display="link"/>
+    <hyperlink ref="I27" r:id="rId26" display="link"/>
+    <hyperlink ref="I22" r:id="rId27" display="link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3769,7 +3758,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="38.1" customHeight="1" spans="1:8">
@@ -3777,25 +3766,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" ht="38.1" customHeight="1" spans="1:8">
@@ -3803,25 +3792,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" ht="38.1" customHeight="1" spans="1:8">
@@ -3829,25 +3818,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:8">
@@ -3855,25 +3844,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="38.1" customHeight="1" spans="1:8">
@@ -3881,25 +3870,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="38.1" customHeight="1" spans="1:8">
@@ -3907,25 +3896,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" ht="50.1" customHeight="1" spans="1:8">
@@ -3933,25 +3922,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="43.5" spans="1:8">
@@ -3959,25 +3948,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="38.1" customHeight="1" spans="1:8">
@@ -3985,25 +3974,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="58" spans="1:8">
@@ -4011,25 +4000,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:8">
@@ -4037,25 +4026,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="H15" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="29" spans="1:8">
@@ -4063,25 +4052,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" ht="58" spans="1:8">
@@ -4089,25 +4078,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:8">
@@ -4115,25 +4104,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:7">
@@ -4332,22 +4321,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -4356,22 +4345,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -4380,22 +4369,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -4404,22 +4393,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -4428,22 +4417,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -4452,22 +4441,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -4476,22 +4465,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -4500,22 +4489,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4524,22 +4513,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -4548,22 +4537,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -4572,22 +4561,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -4596,22 +4585,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4620,22 +4609,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -4644,22 +4633,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -4668,22 +4657,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -4692,22 +4681,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -4716,22 +4705,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -4740,22 +4729,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -4764,22 +4753,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H23" s="6"/>
     </row>

--- a/Sitec CR.xlsx
+++ b/Sitec CR.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CR - Client " sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$K$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4.0.7'!$A$3:$G$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CR - Client '!$A$3:$H$23</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
   <si>
     <t>SITEC - CHANGE REQUEST POINTS</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Corrective Action</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>4.0.8</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
     <t>All Step's Screenshot Need</t>
   </si>
   <si>
+    <t>In-progress</t>
+  </si>
+  <si>
     <t>LIMS/4.0.8/CR/0006</t>
   </si>
   <si>
@@ -428,37 +428,63 @@
     <t>Old and New screenshot added</t>
   </si>
   <si>
+    <t>LIMS/4.0.9/CR/0022</t>
+  </si>
+  <si>
+    <t>Client Name, Address and Intimation (attachment), a field for Container ID, test count fields added in material for category standards for Working Standard, Test Standard in Pre- registration.</t>
+  </si>
+  <si>
+    <t>Need to check remaining terms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Checked , Only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Name and Report To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> terms are added</t>
+    </r>
+  </si>
+  <si>
+    <t>LIMS/4.0.9/CR/0025</t>
+  </si>
+  <si>
+    <t>In sample registration if we add the new test it can't able to add if "Subgroup" or "Test group" name contain single quotes.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>LIMS/4.0.9/CR/0002</t>
+  </si>
+  <si>
+    <t>Result Entry</t>
+  </si>
+  <si>
+    <t>Result Entry By Sample</t>
+  </si>
+  <si>
+    <t>There should be a provision of 'Sample log report' button in 'Result Entry by Sample' Screen to the user level as Analyst.</t>
+  </si>
+  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>LIMS/4.0.9/CR/0022</t>
-  </si>
-  <si>
-    <t>Client Name, Address and Intimation (attachment), a field for Container ID, test count fields added in material for category standards for Working Standard, Test Standard in Pre- registration.</t>
-  </si>
-  <si>
-    <t>Need to check remaining terms</t>
-  </si>
-  <si>
-    <t>LIMS/4.0.9/CR/0025</t>
-  </si>
-  <si>
-    <t>In sample registration if we add the new test it can't able to add if "Subgroup" or "Test group" name contain single quotes.</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>LIMS/4.0.9/CR/0002</t>
-  </si>
-  <si>
-    <t>Result Entry</t>
-  </si>
-  <si>
-    <t>Result Entry By Sample</t>
-  </si>
-  <si>
-    <t>There should be a provision of 'Sample log report' button in 'Result Entry by Sample' Screen to the user level as Analyst.</t>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0003</t>
@@ -519,12 +545,18 @@
     <t>Different slides</t>
   </si>
   <si>
+    <t>Preparing</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0015</t>
   </si>
   <si>
     <t>In Outside party standards label,  Standard no. value is changed from Reference No. to Standard Inventory No.</t>
   </si>
   <si>
+    <t>Different slide done</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0016</t>
   </si>
   <si>
@@ -534,6 +566,9 @@
     <t>Fixed in both version, Maximum Length of Each Term</t>
   </si>
   <si>
+    <t>Maximum Length is mentioned</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0017</t>
   </si>
   <si>
@@ -543,6 +578,9 @@
     <t>Seperate screenshots</t>
   </si>
   <si>
+    <t>Added seperate screenshots</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0018</t>
   </si>
   <si>
@@ -555,6 +593,9 @@
     <t>Probably fixed in both version</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0019</t>
   </si>
   <si>
@@ -567,6 +608,9 @@
     <t>Expiry date of Reference standards to be edited even if release the material inventory.</t>
   </si>
   <si>
+    <t>Added sperate screenshots</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0024</t>
   </si>
   <si>
@@ -618,7 +662,18 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Unlock User button needs to be added on Login page for user to send the unlock user request.</t>
+    <r>
+      <t>Unlock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> User button needs to be added on Login page for user to send the unlock user request.</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0023</t>
@@ -685,6 +740,9 @@
     <t>2-3 months Record sort (Need to Test)</t>
   </si>
   <si>
+    <t xml:space="preserve">Fixed in both version, It working in same </t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0013</t>
   </si>
   <si>
@@ -694,6 +752,9 @@
     <t>Correct screenshot for Type A, Type B selection</t>
   </si>
   <si>
+    <t>Correct screenshot added, Added seperate screenshots</t>
+  </si>
+  <si>
     <t>LIMS/4.0.9/CR/0012</t>
   </si>
   <si>
@@ -704,6 +765,9 @@
   </si>
   <si>
     <t>Need to filter audit trail using Module Name, Form Name and User Name.</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>4.0.7</t>
@@ -1034,6 +1098,9 @@
   </si>
   <si>
     <t>Invoice Approval, new approval level to be added in the Invoice approval Flow i.e "Accounts" as Verifier.</t>
+  </si>
+  <si>
+    <t>Unlock User button needs to be added on Login page for user to send the unlock user request.</t>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0011</t>
@@ -1796,7 +1863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1896,6 +1963,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,6 +2011,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1956,23 +2029,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2293,12 +2378,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
@@ -2313,86 +2398,83 @@
     <col min="8" max="8" width="22.8454545454545" style="32" customWidth="1"/>
     <col min="9" max="9" width="10.1272727272727" style="9" customWidth="1"/>
     <col min="10" max="10" width="42.2454545454545" customWidth="1"/>
-    <col min="11" max="11" width="34.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="34.5454545454545" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:12">
-      <c r="A4" s="35" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:11">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="37" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" ht="21.95" customHeight="1" spans="1:10">
@@ -2400,258 +2482,261 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="50"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:10">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:10">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" ht="21.95" customHeight="1" spans="1:10">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" ht="21.95" customHeight="1" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" ht="21.95" customHeight="1" spans="1:11">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="40" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="52" t="s">
+      <c r="K9" s="55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="21.95" customHeight="1" spans="1:10">
+    <row r="10" ht="21.95" customHeight="1" spans="1:11">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" ht="21.95" customHeight="1" spans="1:10">
+      <c r="H10" s="40"/>
+      <c r="I10" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" ht="21.95" customHeight="1" spans="1:11">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:10">
+      <c r="H11" s="40"/>
+      <c r="I11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:11">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="54"/>
-    </row>
-    <row r="13" ht="32.25" customHeight="1" spans="1:12">
+      <c r="H12" s="40"/>
+      <c r="I12" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="55"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1" spans="1:11">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="50" t="s">
+      <c r="H13" s="40"/>
+      <c r="I13" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:10">
+    </row>
+    <row r="14" ht="36.75" customHeight="1" spans="1:11">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2659,29 +2744,32 @@
         <v>37</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="50" t="s">
+      <c r="K14" s="58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" ht="29" spans="1:12">
+    <row r="15" ht="29" spans="1:10">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -2692,40 +2780,37 @@
         <v>46</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="50" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="38.1" customHeight="1" spans="1:12">
+    </row>
+    <row r="16" ht="38.1" customHeight="1" spans="1:10">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>50</v>
@@ -2736,81 +2821,72 @@
       <c r="G16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" ht="29" spans="1:12">
+      <c r="H16" s="40"/>
+      <c r="I16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="29" spans="1:10">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="41" customHeight="1" spans="1:12">
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:10">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>58</v>
+      <c r="C18" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="32" customHeight="1" spans="1:10">
@@ -2820,26 +2896,26 @@
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>61</v>
+      <c r="C19" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="55" t="s">
         <v>64</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="33.95" customHeight="1" spans="1:10">
@@ -2850,26 +2926,26 @@
         <v>37</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:11">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -2877,29 +2953,32 @@
         <v>37</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="1:10">
+      <c r="H21" s="40"/>
+      <c r="I21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:11">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -2907,25 +2986,30 @@
         <v>37</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="54"/>
+      <c r="K22" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="1:11">
       <c r="A23" s="6">
@@ -2935,30 +3019,32 @@
         <v>37</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" ht="24.95" customHeight="1" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:11">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -2966,29 +3052,32 @@
         <v>37</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" ht="24.95" customHeight="1" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" ht="24.95" customHeight="1" spans="1:11">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -2996,29 +3085,32 @@
         <v>37</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="H25" s="40"/>
       <c r="I25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="24.95" customHeight="1" spans="1:10">
+        <v>87</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" ht="24.95" customHeight="1" spans="1:11">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3026,29 +3118,32 @@
         <v>37</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" ht="26.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="27" ht="26.1" customHeight="1" spans="1:11">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -3056,29 +3151,32 @@
         <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" ht="33" customHeight="1" spans="1:10">
+        <v>93</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="1:11">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -3086,29 +3184,32 @@
         <v>37</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" ht="66" customHeight="1" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" ht="66" customHeight="1" spans="1:11">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -3116,35 +3217,32 @@
         <v>37</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:10">
+        <v>98</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="39.75" customHeight="1" spans="1:11">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -3152,89 +3250,98 @@
         <v>37</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" ht="36.75" customHeight="1" spans="1:10">
+        <v>103</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="36.75" customHeight="1" spans="1:11">
       <c r="A31" s="6">
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>98</v>
+      <c r="C31" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:10">
+        <v>109</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:11">
       <c r="A32" s="6">
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>103</v>
+      <c r="C32" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" ht="30.75" customHeight="1" spans="1:12">
+        <v>111</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="30.75" customHeight="1" spans="1:11">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -3242,93 +3349,98 @@
         <v>37</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="L33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:10">
+      <c r="G33" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:11">
       <c r="A34" s="6">
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>110</v>
+      <c r="C34" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="50"/>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:11">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>113</v>
+      <c r="C35" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" ht="39" customHeight="1" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:11">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -3336,29 +3448,32 @@
         <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="I36" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="1:11">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -3366,53 +3481,63 @@
         <v>37</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="50"/>
-    </row>
-    <row r="38" ht="24.95" customHeight="1" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="40"/>
+      <c r="I37" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" ht="24.95" customHeight="1" spans="1:11">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>122</v>
+      <c r="C38" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="50"/>
+        <v>132</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:9">
       <c r="A39"/>
@@ -3441,10 +3566,10 @@
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
       <c r="I41" s="29"/>
-      <c r="J41" s="58"/>
+      <c r="J41" s="63"/>
     </row>
     <row r="42" ht="23.1" customHeight="1" spans="1:10">
       <c r="A42" s="26"/>
@@ -3453,10 +3578,10 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="29"/>
-      <c r="J42" s="58"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="26"/>
@@ -3465,9 +3590,9 @@
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
-      <c r="H43" s="46"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="29"/>
-      <c r="J43" s="58"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" ht="62.1" customHeight="1" spans="1:10">
       <c r="A44" s="26"/>
@@ -3476,9 +3601,9 @@
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
-      <c r="H44" s="46"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="58"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45" ht="32.1" customHeight="1" spans="1:10">
       <c r="A45" s="26"/>
@@ -3487,9 +3612,9 @@
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="H45" s="46"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="58"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:10">
       <c r="A46" s="26"/>
@@ -3498,9 +3623,9 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
-      <c r="H46" s="46"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="58"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" ht="27.95" customHeight="1" spans="1:10">
       <c r="A47" s="26"/>
@@ -3509,9 +3634,9 @@
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
-      <c r="H47" s="47"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="58"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:10">
       <c r="A48" s="26"/>
@@ -3520,9 +3645,9 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="H48" s="46"/>
+      <c r="H48" s="47"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="58"/>
+      <c r="J48" s="63"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="26"/>
@@ -3531,9 +3656,9 @@
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
-      <c r="H49" s="46"/>
+      <c r="H49" s="47"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="58"/>
+      <c r="J49" s="63"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="26"/>
@@ -3542,9 +3667,9 @@
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
-      <c r="H50" s="46"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="58"/>
+      <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="26"/>
@@ -3553,9 +3678,9 @@
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
-      <c r="H51" s="46"/>
+      <c r="H51" s="47"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="58"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="26"/>
@@ -3564,9 +3689,9 @@
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="H52" s="46"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="58"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="26"/>
@@ -3575,9 +3700,9 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="H53" s="46"/>
+      <c r="H53" s="47"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="58"/>
+      <c r="J53" s="63"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="26"/>
@@ -3586,11 +3711,11 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
-      <c r="H54" s="46"/>
+      <c r="H54" s="47"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="58"/>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:10">
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:11">
       <c r="A55" s="26"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
@@ -3598,9 +3723,10 @@
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
-      <c r="H55" s="47"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="29"/>
@@ -3609,9 +3735,9 @@
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
-      <c r="H56" s="46"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="58"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="29"/>
@@ -3620,9 +3746,9 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
-      <c r="H57" s="46"/>
+      <c r="H57" s="47"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="58"/>
+      <c r="J57" s="63"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="29"/>
@@ -3631,19 +3757,19 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
-      <c r="H58" s="46"/>
+      <c r="H58" s="47"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="58"/>
+      <c r="J58" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L38">
+  <autoFilter ref="A3:K38">
     <extLst/>
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K9:K12"/>
     <mergeCell ref="A1:K3"/>
   </mergeCells>
   <hyperlinks>
@@ -3758,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="38.1" customHeight="1" spans="1:8">
@@ -3766,25 +3892,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="38.1" customHeight="1" spans="1:8">
@@ -3792,25 +3918,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="38.1" customHeight="1" spans="1:8">
@@ -3818,25 +3944,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:8">
@@ -3844,25 +3970,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="38.1" customHeight="1" spans="1:8">
@@ -3870,25 +3996,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="38.1" customHeight="1" spans="1:8">
@@ -3896,25 +4022,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="50.1" customHeight="1" spans="1:8">
@@ -3922,25 +4048,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="43.5" spans="1:8">
@@ -3948,25 +4074,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="38.1" customHeight="1" spans="1:8">
@@ -3974,25 +4100,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" ht="58" spans="1:8">
@@ -4000,25 +4126,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:8">
@@ -4026,25 +4152,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="29" spans="1:8">
@@ -4052,25 +4178,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" ht="58" spans="1:8">
@@ -4078,25 +4204,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:8">
@@ -4104,25 +4230,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:7">
@@ -4321,22 +4447,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -4345,22 +4471,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -4369,22 +4495,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -4393,22 +4519,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -4417,22 +4543,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -4441,22 +4567,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -4465,16 +4591,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>32</v>
@@ -4489,22 +4615,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4519,13 +4645,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>39</v>
@@ -4543,7 +4669,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>50</v>
@@ -4564,19 +4690,19 @@
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -4588,19 +4714,19 @@
         <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4612,19 +4738,19 @@
         <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -4636,19 +4762,19 @@
         <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -4660,19 +4786,19 @@
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -4684,19 +4810,19 @@
         <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -4708,19 +4834,19 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -4732,19 +4858,19 @@
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -4756,19 +4882,19 @@
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H23" s="6"/>
     </row>

--- a/Sitec CR.xlsx
+++ b/Sitec CR.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CR - Client " sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CR 4.0.8 &amp; 4.0.9'!$A$3:$I$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4.0.7'!$A$3:$G$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CR - Client '!$A$3:$H$23</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="145">
   <si>
     <t>SITEC - CHANGE REQUEST POINTS</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Pupose</t>
   </si>
   <si>
-    <t>View</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Comments</t>
   </si>
   <si>
-    <t>Corrective Action</t>
-  </si>
-  <si>
     <t>4.0.8</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     </r>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>LIMS/4.0.8/CR/0002</t>
   </si>
   <si>
@@ -218,10 +209,7 @@
     </r>
   </si>
   <si>
-    <t>All Step's Screenshot Need</t>
-  </si>
-  <si>
-    <t>In-progress</t>
+    <t>Bug</t>
   </si>
   <si>
     <t>LIMS/4.0.8/CR/0006</t>
@@ -419,47 +407,60 @@
     <t>LIMS/4.0.9/CR/0001</t>
   </si>
   <si>
-    <t>The "Contact person" field should be made mandatory in pre-registration screen.</t>
-  </si>
-  <si>
-    <t>old and new screenshot need</t>
-  </si>
-  <si>
-    <t>Old and New screenshot added</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Contact person"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field should be made mandatory in pre-registration screen.</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0022</t>
   </si>
   <si>
-    <t>Client Name, Address and Intimation (attachment), a field for Container ID, test count fields added in material for category standards for Working Standard, Test Standard in Pre- registration.</t>
-  </si>
-  <si>
-    <t>Need to check remaining terms</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Checked , Only </t>
-    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Client Name and Report To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> terms are added</t>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Client Name,Report To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> details are added in material for category standards for Working Standard, Test Standard in Pre- registration.</t>
     </r>
   </si>
   <si>
@@ -469,9 +470,6 @@
     <t>In sample registration if we add the new test it can't able to add if "Subgroup" or "Test group" name contain single quotes.</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0002</t>
   </si>
   <si>
@@ -484,9 +482,6 @@
     <t>There should be a provision of 'Sample log report' button in 'Result Entry by Sample' Screen to the user level as Analyst.</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0003</t>
   </si>
   <si>
@@ -499,9 +494,6 @@
     <t>The Invoice which are "Approved" and Sample which are “Authorized &amp; Released” on previous day will get export on SAP server at 00:00 hrs in .tsv format. The file name should be in “SITECARD_YYYYMMDD.tsv”.</t>
   </si>
   <si>
-    <t>Client side</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0004</t>
   </si>
   <si>
@@ -514,13 +506,10 @@
     <t>LIMS/4.0.9/CR/0005</t>
   </si>
   <si>
-    <t>Invoice Approval, new approval level to be added in the Invoice approval Flow i.e "Accounts" as Verifier</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>Account or Accounts 
+    <t>Invoice Approval, new approval level to be added in the Invoice approval Flow i.e "ACC" as Verifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Need the Proper flow demonstration From Mr.Amit</t>
   </si>
   <si>
@@ -539,13 +528,25 @@
     <t>Standards</t>
   </si>
   <si>
-    <t>Assay and purity column globally added in the all the labels with standard format</t>
-  </si>
-  <si>
-    <t>Different slides</t>
-  </si>
-  <si>
-    <t>Preparing</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Assay and purity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> column globally added in the all the labels with standard format</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0015</t>
@@ -554,48 +555,18 @@
     <t>In Outside party standards label,  Standard no. value is changed from Reference No. to Standard Inventory No.</t>
   </si>
   <si>
-    <t>Different slide done</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0016</t>
   </si>
   <si>
     <t>For all labels the Direction of use, purity and assay details and name of standard, due to letters space is limited restriction is fixed so that complete details are reflected on label print.</t>
   </si>
   <si>
-    <t>Fixed in both version, Maximum Length of Each Term</t>
-  </si>
-  <si>
-    <t>Maximum Length is mentioned</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0017</t>
   </si>
   <si>
     <t>Direction of use column is removed and Assay,purity details are added  to the Analytical Standards 's Label</t>
   </si>
   <si>
-    <t>Seperate screenshots</t>
-  </si>
-  <si>
-    <t>Added seperate screenshots</t>
-  </si>
-  <si>
-    <t>LIMS/4.0.9/CR/0018</t>
-  </si>
-  <si>
-    <t>Reference standard Batch No. details are added in list for lot checking</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Probably fixed in both version</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0019</t>
   </si>
   <si>
@@ -608,9 +579,6 @@
     <t>Expiry date of Reference standards to be edited even if release the material inventory.</t>
   </si>
   <si>
-    <t>Added sperate screenshots</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0024</t>
   </si>
   <si>
@@ -620,13 +588,25 @@
     <t>LIMS/4.0.9/CR/0027</t>
   </si>
   <si>
-    <t>Index issue in standard module. In the earlier version, After the record is added or edited in the popup screen, When user submit and close the popup screen The edited record or added record was not highlighted properly rather it highlights and select the first record. This issue has been fixed in the 4.0.9 version where the cursor will highlight the exact record which was added or edited</t>
-  </si>
-  <si>
-    <t>TBC in 4.0.7</t>
-  </si>
-  <si>
-    <t>Checked in 4.0.7, It working properly</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> issue in standard module. In the earlier version, After the record is added or edited in the popup screen, When user submit and close the popup screen The edited record or added record was not highlighted properly rather it highlights and select the first record. This issue has been fixed in the 4.0.9 version where the cursor will highlight the exact record which was added or edited</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0026</t>
@@ -638,9 +618,6 @@
     <t>In instrument scheduler if the user made a correction it will add as new record in the scheduler detail instead of updating the corresponding record.</t>
   </si>
   <si>
-    <t>Fixed in both version</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0006</t>
   </si>
   <si>
@@ -663,6 +640,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Unlock</t>
     </r>
     <r>
@@ -680,6 +664,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> Director QA</t>
     </r>
     <r>
@@ -712,20 +703,43 @@
     </r>
   </si>
   <si>
-    <t>Exact Role name for HOQA and Site admin</t>
-  </si>
-  <si>
-    <t>1.HO QA, DQA Name is entered
-2. Site Admin is same</t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0008</t>
   </si>
   <si>
     <t>User Request</t>
   </si>
   <si>
-    <t>Need to add tooltip for Director QA approval / Site Admin Approval column to view the Approval / Rejection comment given by Director QA / Site Admin</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Need to add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tooltip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Director QA approval / Site Admin Approval column to view the Approval / Rejection comment given by Director QA / Site Admin</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0009</t>
@@ -737,28 +751,52 @@
     <t>Audit trail should be sorted according to date column.</t>
   </si>
   <si>
-    <t>2-3 months Record sort (Need to Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed in both version, It working in same </t>
-  </si>
-  <si>
     <t>LIMS/4.0.9/CR/0013</t>
   </si>
   <si>
-    <t>Test standards: Vial label Type B added.</t>
-  </si>
-  <si>
-    <t>Correct screenshot for Type A, Type B selection</t>
-  </si>
-  <si>
-    <t>Correct screenshot added, Added seperate screenshots</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Test standards:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Vial label Type B added.</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0012</t>
   </si>
   <si>
-    <t>Outside party standards: Vial label Type B added.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Outside party standards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Vial label Type B added.</t>
+    </r>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0010</t>
@@ -1094,6 +1132,9 @@
     </r>
   </si>
   <si>
+    <t>The "Contact person" field should be made mandatory in pre-registration screen.</t>
+  </si>
+  <si>
     <t>There should be a provision to select the 'Currency' in 'Edit Invoice Entry' Window.</t>
   </si>
   <si>
@@ -1101,6 +1142,9 @@
   </si>
   <si>
     <t>Unlock User button needs to be added on Login page for user to send the unlock user request.</t>
+  </si>
+  <si>
+    <t>Need to add tooltip for Director QA approval / Site Admin Approval column to view the Approval / Rejection comment given by Director QA / Site Admin</t>
   </si>
   <si>
     <t>LIMS/4.0.9/CR/0011</t>
@@ -1115,9 +1159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1177,16 +1221,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,7 +1249,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,38 +1279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,9 +1318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,14 +1335,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,9 +1355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,14 +1372,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,7 +1422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,19 +1458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,55 +1482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,13 +1524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,13 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,12 +1578,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1595,9 +1638,31 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1606,13 +1671,32 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1634,51 +1718,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1699,17 +1739,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,152 +1772,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1963,9 +2017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,18 +2041,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,52 +2071,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2378,12 +2411,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
@@ -2396,1150 +2429,912 @@
     <col min="6" max="6" width="21.8727272727273" style="9" customWidth="1"/>
     <col min="7" max="7" width="90.3727272727273" style="31" customWidth="1"/>
     <col min="8" max="8" width="22.8454545454545" style="32" customWidth="1"/>
-    <col min="9" max="9" width="10.1272727272727" style="9" customWidth="1"/>
-    <col min="10" max="10" width="42.2454545454545" customWidth="1"/>
-    <col min="11" max="11" width="34.5454545454545" style="33" customWidth="1"/>
+    <col min="9" max="9" width="41.8090909090909" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+    <row r="1" ht="21.95" customHeight="1" spans="1:9">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:11">
-      <c r="A4" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" ht="21.95" customHeight="1" spans="1:9">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" ht="21.95" customHeight="1" spans="1:9">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="21.95" customHeight="1" spans="1:10">
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:9">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" ht="21.95" customHeight="1" spans="1:10">
+      <c r="H5" s="39"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:9">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" ht="21.95" customHeight="1" spans="1:10">
+      <c r="H6" s="39"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" ht="21.95" customHeight="1" spans="1:9">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" ht="21.95" customHeight="1" spans="1:10">
+      <c r="H7" s="39"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" ht="21.95" customHeight="1" spans="1:9">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" ht="21.95" customHeight="1" spans="1:11">
+      <c r="H8" s="39"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" ht="21.95" customHeight="1" spans="1:9">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="21.95" customHeight="1" spans="1:11">
+      <c r="G9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="21.95" customHeight="1" spans="1:9">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="55"/>
-    </row>
-    <row r="11" ht="21.95" customHeight="1" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" ht="21.95" customHeight="1" spans="1:9">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="55"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:11">
+        <v>28</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:9">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="55"/>
-    </row>
-    <row r="13" ht="32.25" customHeight="1" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1" spans="1:9">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:11">
+      <c r="G13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" ht="36.75" customHeight="1" spans="1:9">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="29" spans="1:10">
+      <c r="H14" s="39"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" ht="29" spans="1:9">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" ht="38.1" customHeight="1" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" ht="38.1" customHeight="1" spans="1:9">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="29" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" ht="29" spans="1:9">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="41" customHeight="1" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:9">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="32" customHeight="1" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:9">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="33.95" customHeight="1" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="33.95" customHeight="1" spans="1:9">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:11">
+      <c r="H20" s="42"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:9">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:9">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" ht="51" customHeight="1" spans="1:11">
+        <v>61</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" ht="51" customHeight="1" spans="1:9">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:9">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" ht="24.95" customHeight="1" spans="1:9">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" ht="26.1" customHeight="1" spans="1:9">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" ht="33" customHeight="1" spans="1:9">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" ht="66" customHeight="1" spans="1:9">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" ht="39.75" customHeight="1" spans="1:9">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:9">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="52" t="s">
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="G31" s="46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" ht="30.75" customHeight="1" spans="1:9">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="D32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="16" t="s">
+      <c r="H32" s="39"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:9">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="D33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="G33" s="40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:9">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" ht="26.1" customHeight="1" spans="1:11">
-      <c r="A27" s="6">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="G34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="H34" s="47"/>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:9">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="33" t="s">
+      <c r="D35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" ht="33" customHeight="1" spans="1:11">
-      <c r="A28" s="6">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="H35" s="39"/>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:9">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="D36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" ht="66" customHeight="1" spans="1:11">
-      <c r="A29" s="6">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="H36" s="39"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" ht="24.95" customHeight="1" spans="1:9">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:11">
-      <c r="A30" s="6">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" ht="36.75" customHeight="1" spans="1:11">
-      <c r="A31" s="6">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:11">
-      <c r="A32" s="6">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A33" s="6">
-        <v>29</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:11">
-      <c r="A34" s="6">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:11">
-      <c r="A35" s="6">
-        <v>31</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" ht="39" customHeight="1" spans="1:11">
-      <c r="A36" s="6">
-        <v>32</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:11">
-      <c r="A37" s="6">
-        <v>33</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A38" s="6">
-        <v>34</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" ht="24.95" customHeight="1" spans="1:9">
+      <c r="H37" s="47"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3547,261 +3342,201 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" s="32"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40" s="32"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" ht="24.95" customHeight="1" spans="1:10">
+    </row>
+    <row r="40" ht="24.95" customHeight="1" spans="1:9">
+      <c r="A40" s="26"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" ht="23.1" customHeight="1" spans="1:9">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="29"/>
-      <c r="J41" s="63"/>
-    </row>
-    <row r="42" ht="23.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="26"/>
       <c r="B42" s="30"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="29"/>
-      <c r="J42" s="63"/>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" ht="62.1" customHeight="1" spans="1:9">
       <c r="A43" s="26"/>
       <c r="B43" s="30"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
-      <c r="H43" s="47"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="29"/>
-      <c r="J43" s="63"/>
-    </row>
-    <row r="44" ht="62.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="44" ht="32.1" customHeight="1" spans="1:9">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
-      <c r="H44" s="47"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="63"/>
-    </row>
-    <row r="45" ht="32.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:9">
       <c r="A45" s="26"/>
       <c r="B45" s="30"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
-      <c r="H45" s="47"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="63"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:10">
+    </row>
+    <row r="46" ht="27.95" customHeight="1" spans="1:9">
       <c r="A46" s="26"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
-      <c r="H46" s="47"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="63"/>
-    </row>
-    <row r="47" ht="27.95" customHeight="1" spans="1:10">
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="1:9">
       <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
-      <c r="H47" s="48"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="63"/>
-    </row>
-    <row r="48" ht="27" customHeight="1" spans="1:10">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="26"/>
       <c r="B48" s="30"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="H48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="63"/>
-    </row>
-    <row r="49" spans="1:10">
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
-      <c r="H49" s="47"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="63"/>
-    </row>
-    <row r="50" spans="1:10">
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="26"/>
       <c r="B50" s="30"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
-      <c r="H50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="63"/>
-    </row>
-    <row r="51" spans="1:10">
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="26"/>
       <c r="B51" s="30"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
-      <c r="H51" s="47"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="63"/>
-    </row>
-    <row r="52" spans="1:10">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="26"/>
       <c r="B52" s="30"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="H52" s="47"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="63"/>
-    </row>
-    <row r="53" spans="1:10">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="26"/>
       <c r="B53" s="30"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="H53" s="47"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="63"/>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:9">
       <c r="A54" s="26"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
-      <c r="H54" s="47"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="63"/>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="26.1" customHeight="1" spans="1:11">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="48"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="64"/>
-    </row>
-    <row r="56" spans="1:10">
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
-      <c r="H56" s="47"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="63"/>
-    </row>
-    <row r="57" spans="1:10">
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
-      <c r="H57" s="47"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="63"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K38">
+  <autoFilter ref="A3:I37">
     <extLst/>
   </autoFilter>
-  <mergeCells count="5">
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A1:K3"/>
+  <mergeCells count="3">
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A1:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="link"/>
-    <hyperlink ref="I9" r:id="rId2" display="link"/>
-    <hyperlink ref="I10" r:id="rId3" display="link"/>
-    <hyperlink ref="I11" r:id="rId4" display="link"/>
-    <hyperlink ref="I12" r:id="rId5" display="link"/>
-    <hyperlink ref="I13" r:id="rId6" display="link"/>
-    <hyperlink ref="I14" r:id="rId7" display="link"/>
-    <hyperlink ref="I15" r:id="rId8" display="link"/>
-    <hyperlink ref="I16" r:id="rId9" display="link"/>
-    <hyperlink ref="I18" r:id="rId10" display="link"/>
-    <hyperlink ref="I21" r:id="rId11" display="link"/>
-    <hyperlink ref="I24" r:id="rId12" display="link"/>
-    <hyperlink ref="I26" r:id="rId13" display="link"/>
-    <hyperlink ref="I28" r:id="rId14" display="link"/>
-    <hyperlink ref="I31" r:id="rId15" display="link"/>
-    <hyperlink ref="I32" r:id="rId16" display="link"/>
-    <hyperlink ref="I34" r:id="rId17" display="link"/>
-    <hyperlink ref="I35" r:id="rId18" display="link"/>
-    <hyperlink ref="I36" r:id="rId19" display="link"/>
-    <hyperlink ref="I37" r:id="rId20" display="link"/>
-    <hyperlink ref="I38" r:id="rId21" display="link"/>
-    <hyperlink ref="I33" r:id="rId22" display="link"/>
-    <hyperlink ref="I23" r:id="rId23" display="link"/>
-    <hyperlink ref="I29" r:id="rId24" display="link"/>
-    <hyperlink ref="I30" r:id="rId25" display="link"/>
-    <hyperlink ref="I27" r:id="rId26" display="link"/>
-    <hyperlink ref="I22" r:id="rId27" display="link"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3884,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="38.1" customHeight="1" spans="1:8">
@@ -3892,25 +3627,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="38.1" customHeight="1" spans="1:8">
@@ -3918,25 +3653,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="38.1" customHeight="1" spans="1:8">
@@ -3944,25 +3679,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:8">
@@ -3970,25 +3705,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="38.1" customHeight="1" spans="1:8">
@@ -3996,25 +3731,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="38.1" customHeight="1" spans="1:8">
@@ -4022,25 +3757,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="50.1" customHeight="1" spans="1:8">
@@ -4048,25 +3783,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="43.5" spans="1:8">
@@ -4074,25 +3809,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="38.1" customHeight="1" spans="1:8">
@@ -4100,25 +3835,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="58" spans="1:8">
@@ -4126,25 +3861,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:8">
@@ -4152,25 +3887,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="29" spans="1:8">
@@ -4178,25 +3913,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" ht="58" spans="1:8">
@@ -4204,25 +3939,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:8">
@@ -4230,25 +3965,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="H18" s="16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:7">
@@ -4359,6 +4094,7 @@
     <mergeCell ref="A1:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4447,22 +4183,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -4471,22 +4207,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -4495,22 +4231,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -4519,22 +4255,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -4543,22 +4279,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -4567,22 +4303,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -4591,22 +4327,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -4615,22 +4351,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4639,22 +4375,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -4663,22 +4399,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -4687,22 +4423,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -4711,22 +4447,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4735,22 +4471,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -4759,22 +4495,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -4783,22 +4519,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -4807,22 +4543,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -4831,22 +4567,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -4855,22 +4591,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -4879,22 +4615,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -4906,6 +4642,7 @@
     <mergeCell ref="A1:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>